--- a/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_TC_Doimatkhau_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_TC_Doimatkhau_ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA45CFD-2CFD-4CD0-8B07-78F19B2B815E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F29BC37-AB1B-4D65-AFBE-F99E441CF24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="114">
   <si>
     <t>Author</t>
   </si>
@@ -384,13 +384,10 @@
     <t xml:space="preserve">Để trống </t>
   </si>
   <si>
-    <t>TC-DMK-11</t>
-  </si>
-  <si>
-    <t>Nhập kí tự trống</t>
-  </si>
-  <si>
     <t>Test Cases for 'Đổi mật khẩu ' function</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1303,6 +1300,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1310,6 +1310,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,29 +1333,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1826,7 +1832,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
@@ -2267,11 +2273,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2292,26 +2298,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
+      <c r="A1" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
     </row>
     <row r="2" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="38"/>
@@ -2353,31 +2359,31 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:18" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="93" t="s">
         <v>83</v>
       </c>
       <c r="F5" s="50">
@@ -2390,13 +2396,16 @@
       <c r="I5" s="52" t="s">
         <v>81</v>
       </c>
+      <c r="J5" s="100" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:18" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="91"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="50">
         <v>2</v>
       </c>
@@ -2407,13 +2416,14 @@
       <c r="I6" s="42" t="s">
         <v>92</v>
       </c>
+      <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:18" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="85"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="91"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="50">
         <v>3</v>
       </c>
@@ -2422,13 +2432,14 @@
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
+      <c r="J7" s="101"/>
     </row>
     <row r="8" spans="1:18" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="50">
         <v>4</v>
       </c>
@@ -2439,13 +2450,14 @@
         <v>80</v>
       </c>
       <c r="I8" s="42"/>
+      <c r="J8" s="101"/>
     </row>
     <row r="9" spans="1:18" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="91"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="50">
         <v>5</v>
       </c>
@@ -2456,13 +2468,14 @@
         <v>80</v>
       </c>
       <c r="I9" s="42"/>
+      <c r="J9" s="101"/>
     </row>
     <row r="10" spans="1:18" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="91"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="50">
         <v>6</v>
       </c>
@@ -2473,19 +2486,20 @@
       <c r="I10" s="42" t="s">
         <v>82</v>
       </c>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:18" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="93" t="s">
         <v>83</v>
       </c>
       <c r="F11" s="50">
@@ -2498,13 +2512,16 @@
       <c r="I11" s="52" t="s">
         <v>81</v>
       </c>
+      <c r="J11" s="100" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:18" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="91"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="50">
         <v>2</v>
       </c>
@@ -2515,13 +2532,14 @@
       <c r="I12" s="42" t="s">
         <v>92</v>
       </c>
+      <c r="J12" s="101"/>
     </row>
     <row r="13" spans="1:18" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="91"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="50">
         <v>3</v>
       </c>
@@ -2530,13 +2548,14 @@
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:18" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="91"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="50">
         <v>4</v>
       </c>
@@ -2547,13 +2566,14 @@
         <v>80</v>
       </c>
       <c r="I14" s="42"/>
+      <c r="J14" s="101"/>
     </row>
     <row r="15" spans="1:18" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="91"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="50">
         <v>5</v>
       </c>
@@ -2564,13 +2584,14 @@
         <v>80</v>
       </c>
       <c r="I15" s="42"/>
+      <c r="J15" s="101"/>
     </row>
     <row r="16" spans="1:18" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="91"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="50">
         <v>6</v>
       </c>
@@ -2581,17 +2602,18 @@
       <c r="I16" s="42" t="s">
         <v>82</v>
       </c>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="86" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="93" t="s">
         <v>83</v>
       </c>
       <c r="F17" s="50">
@@ -2604,13 +2626,16 @@
       <c r="I17" s="52" t="s">
         <v>81</v>
       </c>
+      <c r="J17" s="100" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="18" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="91"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="50">
         <v>2</v>
       </c>
@@ -2621,13 +2646,14 @@
       <c r="I18" s="42" t="s">
         <v>92</v>
       </c>
+      <c r="J18" s="101"/>
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="91"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="50">
         <v>3</v>
       </c>
@@ -2636,13 +2662,14 @@
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
+      <c r="J19" s="101"/>
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="91"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="94"/>
       <c r="F20" s="50">
         <v>4</v>
       </c>
@@ -2653,13 +2680,14 @@
         <v>87</v>
       </c>
       <c r="I20" s="42"/>
+      <c r="J20" s="101"/>
     </row>
     <row r="21" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="91"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="50">
         <v>5</v>
       </c>
@@ -2670,13 +2698,14 @@
         <v>80</v>
       </c>
       <c r="I21" s="42"/>
+      <c r="J21" s="101"/>
     </row>
     <row r="22" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="91"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="94"/>
       <c r="F22" s="50">
         <v>6</v>
       </c>
@@ -2687,19 +2716,20 @@
       <c r="I22" s="42" t="s">
         <v>88</v>
       </c>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="90" t="s">
+      <c r="E23" s="93" t="s">
         <v>83</v>
       </c>
       <c r="F23" s="50">
@@ -2712,13 +2742,16 @@
       <c r="I23" s="52" t="s">
         <v>81</v>
       </c>
+      <c r="J23" s="100" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="24" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="91"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="50">
         <v>2</v>
       </c>
@@ -2729,13 +2762,14 @@
       <c r="I24" s="42" t="s">
         <v>92</v>
       </c>
+      <c r="J24" s="101"/>
     </row>
     <row r="25" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="91"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="50">
         <v>3</v>
       </c>
@@ -2744,13 +2778,14 @@
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
+      <c r="J25" s="101"/>
     </row>
     <row r="26" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="85"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="91"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="50">
         <v>4</v>
       </c>
@@ -2761,13 +2796,14 @@
         <v>80</v>
       </c>
       <c r="I26" s="42"/>
+      <c r="J26" s="101"/>
     </row>
     <row r="27" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="85"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="91"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="94"/>
       <c r="F27" s="50">
         <v>5</v>
       </c>
@@ -2778,13 +2814,14 @@
         <v>80</v>
       </c>
       <c r="I27" s="42"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="91"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="50">
         <v>6</v>
       </c>
@@ -2795,13 +2832,14 @@
       <c r="I28" s="42" t="s">
         <v>82</v>
       </c>
+      <c r="J28" s="101"/>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="91"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="94"/>
       <c r="F29" s="50">
         <v>6</v>
       </c>
@@ -2812,31 +2850,32 @@
       <c r="I29" s="42" t="s">
         <v>91</v>
       </c>
+      <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
       <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
-      <c r="B31" s="96" t="s">
+      <c r="A31" s="85"/>
+      <c r="B31" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="D31" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="E31" s="93" t="s">
         <v>83</v>
       </c>
       <c r="F31" s="50">
@@ -2849,13 +2888,16 @@
       <c r="I31" s="52" t="s">
         <v>81</v>
       </c>
+      <c r="J31" s="100" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="32" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="91"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="94"/>
       <c r="F32" s="50">
         <v>2</v>
       </c>
@@ -2866,13 +2908,14 @@
       <c r="I32" s="42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="85"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="91"/>
+      <c r="J32" s="101"/>
+    </row>
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="86"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="94"/>
       <c r="F33" s="50">
         <v>3</v>
       </c>
@@ -2881,13 +2924,14 @@
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="85"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="91"/>
+      <c r="J33" s="101"/>
+    </row>
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="86"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="94"/>
       <c r="F34" s="50">
         <v>4</v>
       </c>
@@ -2898,13 +2942,14 @@
         <v>80</v>
       </c>
       <c r="I34" s="42"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="91"/>
+      <c r="J34" s="101"/>
+    </row>
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="86"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="94"/>
       <c r="F35" s="50">
         <v>5</v>
       </c>
@@ -2915,13 +2960,14 @@
         <v>80</v>
       </c>
       <c r="I35" s="42"/>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="91"/>
+      <c r="J35" s="101"/>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="86"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="94"/>
       <c r="F36" s="50">
         <v>6</v>
       </c>
@@ -2932,19 +2978,20 @@
       <c r="I36" s="42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="84"/>
-      <c r="B37" s="96" t="s">
+      <c r="J36" s="102"/>
+    </row>
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="85"/>
+      <c r="B37" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="88" t="s">
+      <c r="D37" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="90" t="s">
+      <c r="E37" s="93" t="s">
         <v>83</v>
       </c>
       <c r="F37" s="50">
@@ -2957,13 +3004,16 @@
       <c r="I37" s="52" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="85"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="91"/>
+      <c r="J37" s="100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="86"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="94"/>
       <c r="F38" s="50">
         <v>2</v>
       </c>
@@ -2974,13 +3024,14 @@
       <c r="I38" s="42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="85"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="91"/>
+      <c r="J38" s="101"/>
+    </row>
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="86"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="94"/>
       <c r="F39" s="50">
         <v>3</v>
       </c>
@@ -2991,19 +3042,20 @@
       <c r="I39" s="42" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="84"/>
-      <c r="B40" s="96" t="s">
+      <c r="J39" s="102"/>
+    </row>
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="85"/>
+      <c r="B40" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="88" t="s">
+      <c r="D40" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="90" t="s">
+      <c r="E40" s="93" t="s">
         <v>83</v>
       </c>
       <c r="F40" s="50">
@@ -3016,13 +3068,16 @@
       <c r="I40" s="52" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="85"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="91"/>
+      <c r="J40" s="100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="86"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="94"/>
       <c r="F41" s="50">
         <v>2</v>
       </c>
@@ -3033,13 +3088,14 @@
       <c r="I41" s="42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="85"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="91"/>
+      <c r="J41" s="101"/>
+    </row>
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="86"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="94"/>
       <c r="F42" s="50">
         <v>3</v>
       </c>
@@ -3050,19 +3106,20 @@
       <c r="I42" s="42" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="84"/>
-      <c r="B43" s="99" t="s">
+      <c r="J42" s="102"/>
+    </row>
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="85"/>
+      <c r="B43" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="88" t="s">
+      <c r="D43" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="90" t="s">
+      <c r="E43" s="93" t="s">
         <v>83</v>
       </c>
       <c r="F43" s="50">
@@ -3075,13 +3132,16 @@
       <c r="I43" s="52" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="85"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="91"/>
+      <c r="J43" s="100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="86"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="94"/>
       <c r="F44" s="50">
         <v>2</v>
       </c>
@@ -3092,13 +3152,14 @@
       <c r="I44" s="42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="85"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="91"/>
+      <c r="J44" s="101"/>
+    </row>
+    <row r="45" spans="1:10" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="86"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="94"/>
       <c r="F45" s="50">
         <v>3</v>
       </c>
@@ -3109,19 +3170,20 @@
       <c r="I45" s="42" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="84"/>
-      <c r="B46" s="94" t="s">
+      <c r="J45" s="102"/>
+    </row>
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="85"/>
+      <c r="B46" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="88" t="s">
+      <c r="D46" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="90" t="s">
+      <c r="E46" s="93" t="s">
         <v>83</v>
       </c>
       <c r="F46" s="50">
@@ -3134,13 +3196,16 @@
       <c r="I46" s="52" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="85"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="91"/>
+      <c r="J46" s="100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="86"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="94"/>
       <c r="F47" s="50">
         <v>2</v>
       </c>
@@ -3151,13 +3216,14 @@
       <c r="I47" s="42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="85"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="91"/>
+      <c r="J47" s="101"/>
+    </row>
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="86"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="94"/>
       <c r="F48" s="50">
         <v>3</v>
       </c>
@@ -3166,13 +3232,14 @@
       </c>
       <c r="H48" s="42"/>
       <c r="I48" s="42"/>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="85"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="91"/>
+      <c r="J48" s="101"/>
+    </row>
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="86"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="94"/>
       <c r="F49" s="50">
         <v>4</v>
       </c>
@@ -3183,13 +3250,14 @@
         <v>87</v>
       </c>
       <c r="I49" s="42"/>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="85"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="91"/>
+      <c r="J49" s="101"/>
+    </row>
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="86"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="94"/>
       <c r="F50" s="50">
         <v>5</v>
       </c>
@@ -3200,13 +3268,14 @@
         <v>80</v>
       </c>
       <c r="I50" s="42"/>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="85"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="91"/>
+      <c r="J50" s="101"/>
+    </row>
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="86"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="94"/>
       <c r="F51" s="50">
         <v>6</v>
       </c>
@@ -3217,19 +3286,20 @@
       <c r="I51" s="42" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="84"/>
-      <c r="B52" s="92" t="s">
+      <c r="J51" s="102"/>
+    </row>
+    <row r="52" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="85"/>
+      <c r="B52" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="88" t="s">
+      <c r="D52" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="90" t="s">
+      <c r="E52" s="93" t="s">
         <v>83</v>
       </c>
       <c r="F52" s="50">
@@ -3242,13 +3312,16 @@
       <c r="I52" s="52" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="85"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="91"/>
+      <c r="J52" s="100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="86"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="94"/>
       <c r="F53" s="50">
         <v>2</v>
       </c>
@@ -3259,13 +3332,14 @@
       <c r="I53" s="42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="85"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="91"/>
+      <c r="J53" s="101"/>
+    </row>
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="86"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="94"/>
       <c r="F54" s="50">
         <v>3</v>
       </c>
@@ -3274,13 +3348,14 @@
       </c>
       <c r="H54" s="42"/>
       <c r="I54" s="42"/>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="85"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="91"/>
+      <c r="J54" s="101"/>
+    </row>
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="86"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="94"/>
       <c r="F55" s="50">
         <v>4</v>
       </c>
@@ -3291,13 +3366,14 @@
         <v>111</v>
       </c>
       <c r="I55" s="42"/>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="85"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="91"/>
+      <c r="J55" s="101"/>
+    </row>
+    <row r="56" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="86"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="94"/>
       <c r="F56" s="50">
         <v>5</v>
       </c>
@@ -3308,13 +3384,14 @@
         <v>80</v>
       </c>
       <c r="I56" s="42"/>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="85"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="91"/>
+      <c r="J56" s="101"/>
+    </row>
+    <row r="57" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="86"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="94"/>
       <c r="F57" s="50">
         <v>6</v>
       </c>
@@ -3325,120 +3402,62 @@
       <c r="I57" s="42" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="84"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="50">
-        <v>1</v>
-      </c>
-      <c r="G58" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="85"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="50">
-        <v>2</v>
-      </c>
-      <c r="G59" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="85"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="50">
-        <v>3</v>
-      </c>
-      <c r="G60" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="85"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="50">
-        <v>4</v>
-      </c>
-      <c r="G61" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="H61" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="I61" s="42"/>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="85"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="50">
-        <v>5</v>
-      </c>
-      <c r="G62" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="H62" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="I62" s="42"/>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="85"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="50">
-        <v>6</v>
-      </c>
-      <c r="G63" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H64" s="1" t="s">
+      <c r="J57" s="102"/>
+    </row>
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="1" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="63">
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="J46:J51"/>
+    <mergeCell ref="J52:J57"/>
+    <mergeCell ref="J5:J10"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="J23:J29"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="D52:D57"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D22"/>
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B40:B42"/>
@@ -3455,47 +3474,6 @@
     <mergeCell ref="C31:C36"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="E31:E36"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="B11:B22"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="D52:D57"/>
-    <mergeCell ref="E52:E57"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3582,6 +3560,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D6B4B01122C4C5469986154FFB8D8EF2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec10f64280011073fa6f623697d19ea0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1044e740-9d69-44f8-aa12-902420f7be47" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0ac0c3d935aad8a20770947cf8d8aaa" ns2:_="">
     <xsd:import namespace="1044e740-9d69-44f8-aa12-902420f7be47"/>
@@ -3713,12 +3697,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36A47FB5-60F9-4867-A4F2-9E6144B6C2E0}">
   <ds:schemaRefs>
@@ -3728,6 +3706,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF9BCF9-BFA6-49C3-93BA-45A599D5F8E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1044e740-9d69-44f8-aa12-902420f7be47"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92DBB237-9D81-4F1E-AE32-CDD55FC150A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3743,20 +3737,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF9BCF9-BFA6-49C3-93BA-45A599D5F8E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1044e740-9d69-44f8-aa12-902420f7be47"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_TC_Doimatkhau_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_TC_Doimatkhau_ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F29BC37-AB1B-4D65-AFBE-F99E441CF24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9975B38B-B975-45B4-8451-CAB101DF8223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="117">
   <si>
     <t>Author</t>
   </si>
@@ -231,9 +231,6 @@
     <t xml:space="preserve">Người dùng bắt buộc phải nhập đúng mật khẩu hiện tại thì hệ thống mới có thể thay đổi mật khẩu </t>
   </si>
   <si>
-    <t xml:space="preserve">Người dùng nhấn nút " back" phía trên cùng để quay lai giao diện trang chủ </t>
-  </si>
-  <si>
     <t xml:space="preserve">đổi mật khẩu </t>
   </si>
   <si>
@@ -387,7 +384,19 @@
     <t>Test Cases for 'Đổi mật khẩu ' function</t>
   </si>
   <si>
+    <t xml:space="preserve">Người dùng nhấn nút " back"  để quay lai giao diện trang chủ </t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fail </t>
+  </si>
+  <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Người dùng nhấn nút " back"  để quay lai giao diện trang chủ </t>
   </si>
 </sst>
 </file>
@@ -1832,8 +1841,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1874,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="76"/>
       <c r="H2" s="77"/>
@@ -1954,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="36" t="s">
@@ -1976,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
@@ -1996,17 +2005,17 @@
         <v>3</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="17"/>
@@ -2016,13 +2025,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>32</v>
@@ -2038,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>46</v>
@@ -2060,7 +2069,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>46</v>
@@ -2082,13 +2091,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>31</v>
@@ -2104,13 +2113,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>31</v>
@@ -2126,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>46</v>
@@ -2276,8 +2285,8 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2299,7 +2308,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -2375,26 +2384,26 @@
     <row r="5" spans="1:18" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="85"/>
       <c r="B5" s="87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="50">
         <v>1</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="100" t="s">
         <v>113</v>
@@ -2410,11 +2419,11 @@
         <v>2</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J6" s="101"/>
     </row>
@@ -2428,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -2444,10 +2453,10 @@
         <v>4</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="101"/>
@@ -2462,10 +2471,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="101"/>
@@ -2480,37 +2489,37 @@
         <v>6</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:18" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="85"/>
       <c r="B11" s="89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="91" t="s">
-        <v>85</v>
-      </c>
       <c r="E11" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="50">
         <v>1</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="100" t="s">
         <v>113</v>
@@ -2526,11 +2535,11 @@
         <v>2</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="101"/>
     </row>
@@ -2544,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
@@ -2560,10 +2569,10 @@
         <v>4</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="101"/>
@@ -2578,10 +2587,10 @@
         <v>5</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="101"/>
@@ -2596,11 +2605,11 @@
         <v>6</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="102"/>
     </row>
@@ -2608,23 +2617,23 @@
       <c r="A17" s="85"/>
       <c r="B17" s="90"/>
       <c r="C17" s="89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="50">
         <v>1</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="100" t="s">
         <v>113</v>
@@ -2640,11 +2649,11 @@
         <v>2</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="42"/>
       <c r="I18" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" s="101"/>
     </row>
@@ -2658,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
@@ -2674,10 +2683,10 @@
         <v>4</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="101"/>
@@ -2692,10 +2701,10 @@
         <v>5</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="101"/>
@@ -2710,40 +2719,40 @@
         <v>6</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="85"/>
       <c r="B23" s="87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="E23" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="50">
         <v>1</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J23" s="100" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2756,11 +2765,11 @@
         <v>2</v>
       </c>
       <c r="G24" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" s="101"/>
     </row>
@@ -2774,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
@@ -2790,10 +2799,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="101"/>
@@ -2808,10 +2817,10 @@
         <v>5</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="101"/>
@@ -2826,11 +2835,11 @@
         <v>6</v>
       </c>
       <c r="G28" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="101"/>
     </row>
@@ -2844,11 +2853,11 @@
         <v>6</v>
       </c>
       <c r="G29" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" s="42"/>
       <c r="I29" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J29" s="102"/>
     </row>
@@ -2867,29 +2876,29 @@
     <row r="31" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
       <c r="B31" s="87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="91" t="s">
-        <v>94</v>
-      </c>
       <c r="E31" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="50">
         <v>1</v>
       </c>
       <c r="G31" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J31" s="100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2902,11 +2911,11 @@
         <v>2</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J32" s="101"/>
     </row>
@@ -2920,7 +2929,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
@@ -2936,10 +2945,10 @@
         <v>4</v>
       </c>
       <c r="G34" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I34" s="42"/>
       <c r="J34" s="101"/>
@@ -2954,10 +2963,10 @@
         <v>5</v>
       </c>
       <c r="G35" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I35" s="42"/>
       <c r="J35" s="101"/>
@@ -2972,40 +2981,40 @@
         <v>6</v>
       </c>
       <c r="G36" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" s="102"/>
     </row>
     <row r="37" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="85"/>
       <c r="B37" s="87" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="50">
         <v>1</v>
       </c>
       <c r="G37" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" s="52"/>
       <c r="I37" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J37" s="100" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3018,11 +3027,11 @@
         <v>2</v>
       </c>
       <c r="G38" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="101"/>
     </row>
@@ -3036,40 +3045,40 @@
         <v>3</v>
       </c>
       <c r="G39" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39" s="42"/>
       <c r="I39" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J39" s="102"/>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="85"/>
       <c r="B40" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="91" t="s">
-        <v>100</v>
-      </c>
       <c r="E40" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40" s="50">
         <v>1</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="52"/>
       <c r="I40" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J40" s="100" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3082,11 +3091,11 @@
         <v>2</v>
       </c>
       <c r="G41" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H41" s="42"/>
       <c r="I41" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="101"/>
     </row>
@@ -3100,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="G42" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H42" s="42"/>
       <c r="I42" s="42" t="s">
@@ -3111,29 +3120,29 @@
     <row r="43" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="85"/>
       <c r="B43" s="98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="50">
         <v>1</v>
       </c>
       <c r="G43" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J43" s="100" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3146,11 +3155,11 @@
         <v>2</v>
       </c>
       <c r="G44" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H44" s="42"/>
       <c r="I44" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="101"/>
     </row>
@@ -3164,37 +3173,37 @@
         <v>3</v>
       </c>
       <c r="G45" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H45" s="42"/>
       <c r="I45" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J45" s="102"/>
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="85"/>
       <c r="B46" s="88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="91" t="s">
-        <v>108</v>
-      </c>
       <c r="E46" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F46" s="50">
         <v>1</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H46" s="52"/>
       <c r="I46" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J46" s="100" t="s">
         <v>113</v>
@@ -3210,11 +3219,11 @@
         <v>2</v>
       </c>
       <c r="G47" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H47" s="42"/>
       <c r="I47" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="101"/>
     </row>
@@ -3228,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H48" s="42"/>
       <c r="I48" s="42"/>
@@ -3244,10 +3253,10 @@
         <v>4</v>
       </c>
       <c r="G49" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H49" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I49" s="42"/>
       <c r="J49" s="101"/>
@@ -3262,10 +3271,10 @@
         <v>5</v>
       </c>
       <c r="G50" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H50" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I50" s="42"/>
       <c r="J50" s="101"/>
@@ -3280,37 +3289,37 @@
         <v>6</v>
       </c>
       <c r="G51" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H51" s="42"/>
       <c r="I51" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J51" s="102"/>
     </row>
     <row r="52" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="85"/>
       <c r="B52" s="99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="91" t="s">
-        <v>110</v>
-      </c>
       <c r="E52" s="93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F52" s="50">
         <v>1</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H52" s="52"/>
       <c r="I52" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J52" s="100" t="s">
         <v>113</v>
@@ -3326,11 +3335,11 @@
         <v>2</v>
       </c>
       <c r="G53" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H53" s="42"/>
       <c r="I53" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="101"/>
     </row>
@@ -3344,7 +3353,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H54" s="42"/>
       <c r="I54" s="42"/>
@@ -3360,10 +3369,10 @@
         <v>4</v>
       </c>
       <c r="G55" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H55" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I55" s="42"/>
       <c r="J55" s="101"/>
@@ -3378,10 +3387,10 @@
         <v>5</v>
       </c>
       <c r="G56" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H56" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I56" s="42"/>
       <c r="J56" s="101"/>
@@ -3396,7 +3405,7 @@
         <v>6</v>
       </c>
       <c r="G57" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H57" s="42"/>
       <c r="I57" s="42" t="s">
@@ -3551,21 +3560,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D6B4B01122C4C5469986154FFB8D8EF2" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec10f64280011073fa6f623697d19ea0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1044e740-9d69-44f8-aa12-902420f7be47" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0ac0c3d935aad8a20770947cf8d8aaa" ns2:_="">
     <xsd:import namespace="1044e740-9d69-44f8-aa12-902420f7be47"/>
@@ -3697,31 +3691,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36A47FB5-60F9-4867-A4F2-9E6144B6C2E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF9BCF9-BFA6-49C3-93BA-45A599D5F8E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1044e740-9d69-44f8-aa12-902420f7be47"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92DBB237-9D81-4F1E-AE32-CDD55FC150A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3737,4 +3722,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36A47FB5-60F9-4867-A4F2-9E6144B6C2E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF9BCF9-BFA6-49C3-93BA-45A599D5F8E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1044e740-9d69-44f8-aa12-902420f7be47"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>